--- a/Code/Results/Cases/Case_8_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.937594221159713</v>
+        <v>2.632265861556675</v>
       </c>
       <c r="C2">
-        <v>1.199004638787756</v>
+        <v>1.285002522118248</v>
       </c>
       <c r="D2">
-        <v>0.03221262183451401</v>
+        <v>0.02509923275910442</v>
       </c>
       <c r="E2">
-        <v>0.1907971443998271</v>
+        <v>0.201521755875504</v>
       </c>
       <c r="F2">
-        <v>1.829884914828241</v>
+        <v>1.542366538109007</v>
       </c>
       <c r="G2">
-        <v>0.0007938948549927259</v>
+        <v>6.13308428050463E-05</v>
       </c>
       <c r="H2">
-        <v>0.001501657994469996</v>
+        <v>0.001629346817443755</v>
       </c>
       <c r="I2">
-        <v>0.00362966039058632</v>
+        <v>0.004198656169569936</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.878456982584602</v>
+        <v>0.6800163832800479</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3214403830066743</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2038601819343882</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.134993347199355</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9042017032647891</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.105425595846704</v>
+      </c>
+      <c r="R2">
+        <v>0.7873167719988707</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.550130158257787</v>
+        <v>2.2978640912213</v>
       </c>
       <c r="C3">
-        <v>1.037127668945743</v>
+        <v>1.113014856390919</v>
       </c>
       <c r="D3">
-        <v>0.0318403570137864</v>
+        <v>0.02432048433626921</v>
       </c>
       <c r="E3">
-        <v>0.1651750115946093</v>
+        <v>0.177614203406975</v>
       </c>
       <c r="F3">
-        <v>1.640666329982423</v>
+        <v>1.388597660771822</v>
       </c>
       <c r="G3">
-        <v>0.0007996246511160426</v>
+        <v>0.0002449347637144272</v>
       </c>
       <c r="H3">
-        <v>0.000406756539675257</v>
+        <v>0.0006052591535630203</v>
       </c>
       <c r="I3">
-        <v>0.001596277668037605</v>
+        <v>0.002472657581508386</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8102093786532549</v>
+        <v>0.6338546684699295</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.313774700528235</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1772866035538065</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9866885586329985</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9259892489163875</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.9630767717650386</v>
+      </c>
+      <c r="R3">
+        <v>0.8120409263363264</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.312422937512736</v>
+        <v>2.091617524895923</v>
       </c>
       <c r="C4">
-        <v>0.9388294672051245</v>
+        <v>1.008144289435251</v>
       </c>
       <c r="D4">
-        <v>0.03157675737682553</v>
+        <v>0.02380739528026599</v>
       </c>
       <c r="E4">
-        <v>0.1496632491140346</v>
+        <v>0.1630024523260225</v>
       </c>
       <c r="F4">
-        <v>1.525675030381038</v>
+        <v>1.294306919292765</v>
       </c>
       <c r="G4">
-        <v>0.0008032525062016137</v>
+        <v>0.0009310491660439457</v>
       </c>
       <c r="H4">
-        <v>7.073058077855521E-05</v>
+        <v>0.000213254650207606</v>
       </c>
       <c r="I4">
-        <v>0.000840969927470514</v>
+        <v>0.001680066359416088</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7686321394882896</v>
+        <v>0.605344361885038</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3086951965852833</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1617521267647071</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.895909407290354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9396269289091279</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8757288695925425</v>
+      </c>
+      <c r="R4">
+        <v>0.8273683474293065</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.21353705983438</v>
+        <v>2.005523037657781</v>
       </c>
       <c r="C5">
-        <v>0.8995199170576029</v>
+        <v>0.9660681534337243</v>
       </c>
       <c r="D5">
-        <v>0.03141698868144438</v>
+        <v>0.02356853807550197</v>
       </c>
       <c r="E5">
-        <v>0.1434204467872497</v>
+        <v>0.1570943359365025</v>
       </c>
       <c r="F5">
-        <v>1.477252586308964</v>
+        <v>1.254312076903901</v>
       </c>
       <c r="G5">
-        <v>0.0008047695601445472</v>
+        <v>0.001348855803851565</v>
       </c>
       <c r="H5">
-        <v>1.229141456748906E-05</v>
+        <v>0.0001087643902950575</v>
       </c>
       <c r="I5">
-        <v>0.0007090927787198886</v>
+        <v>0.001490693254547537</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7505043996160126</v>
+        <v>0.5926495847248106</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3060882997280601</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1552808633638243</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8587653364849714</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9444844228207785</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.8399494105989902</v>
+      </c>
+      <c r="R5">
+        <v>0.8331628626102692</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.194638809534638</v>
+        <v>1.98901206517354</v>
       </c>
       <c r="C6">
-        <v>0.8936306896934241</v>
+        <v>0.9597035198978574</v>
       </c>
       <c r="D6">
-        <v>0.0313368491636048</v>
+        <v>0.02350296090040693</v>
       </c>
       <c r="E6">
-        <v>0.1424254173072441</v>
+        <v>0.1561554109406877</v>
       </c>
       <c r="F6">
-        <v>1.467003097672418</v>
+        <v>1.24574031192553</v>
       </c>
       <c r="G6">
-        <v>0.0008050358560698221</v>
+        <v>0.001430144748435405</v>
       </c>
       <c r="H6">
-        <v>7.066782224285362E-06</v>
+        <v>9.427431968589417E-05</v>
       </c>
       <c r="I6">
-        <v>0.000776283683748602</v>
+        <v>0.001558973399201413</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7459687342721892</v>
+        <v>0.5892828370751957</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3051099798551533</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1538110100089121</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8523530286552727</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9443698543723542</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.8337807298818305</v>
+      </c>
+      <c r="R6">
+        <v>0.8335382369240918</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.304291165861741</v>
+        <v>2.075887841085887</v>
       </c>
       <c r="C7">
-        <v>0.940008418229155</v>
+        <v>1.0014657686948</v>
       </c>
       <c r="D7">
-        <v>0.03142945502484906</v>
+        <v>0.02360780817925057</v>
       </c>
       <c r="E7">
-        <v>0.1496849906425908</v>
+        <v>0.1635476943004299</v>
       </c>
       <c r="F7">
-        <v>1.51893318344959</v>
+        <v>1.277557629501757</v>
       </c>
       <c r="G7">
-        <v>0.0008033070105243301</v>
+        <v>0.001155629009620185</v>
       </c>
       <c r="H7">
-        <v>6.838244121176729E-05</v>
+        <v>0.0002059539999579307</v>
       </c>
       <c r="I7">
-        <v>0.001045286126138301</v>
+        <v>0.001903623939009336</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7642012495959918</v>
+        <v>0.5966525903641724</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3050466811406736</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1588515544336957</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8947295460596791</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9371773058981034</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8722416903048327</v>
+      </c>
+      <c r="R7">
+        <v>0.8235209491469178</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.794798987289482</v>
+        <v>2.480386220740115</v>
       </c>
       <c r="C8">
-        <v>1.145217567703867</v>
+        <v>1.201543652319344</v>
       </c>
       <c r="D8">
-        <v>0.03189990508617413</v>
+        <v>0.02437858631886569</v>
       </c>
       <c r="E8">
-        <v>0.1820495981001571</v>
+        <v>0.1951371851124577</v>
       </c>
       <c r="F8">
-        <v>1.756247666489145</v>
+        <v>1.445952650648366</v>
       </c>
       <c r="G8">
-        <v>0.0007958915557745305</v>
+        <v>0.001313589117640568</v>
       </c>
       <c r="H8">
-        <v>0.001044461516468642</v>
+        <v>0.001188595339432608</v>
       </c>
       <c r="I8">
-        <v>0.003049536290443911</v>
+        <v>0.003740826735694647</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8492726516627798</v>
+        <v>0.6428018862695026</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3102614918933213</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1870473787475646</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.082871554404065</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9083830782800177</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1.047456409793497</v>
+      </c>
+      <c r="R8">
+        <v>0.7866627382997571</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.772809747082874</v>
+        <v>3.308884688037097</v>
       </c>
       <c r="C9">
-        <v>1.555075164934067</v>
+        <v>1.62585564015211</v>
       </c>
       <c r="D9">
-        <v>0.03279952219694771</v>
+        <v>0.02614318430645879</v>
       </c>
       <c r="E9">
-        <v>0.2475091751832608</v>
+        <v>0.2557543944524099</v>
       </c>
       <c r="F9">
-        <v>2.244233946822078</v>
+        <v>1.82705118651775</v>
       </c>
       <c r="G9">
-        <v>0.0007821286878722098</v>
+        <v>0.004332926796815961</v>
       </c>
       <c r="H9">
-        <v>0.005923839721542867</v>
+        <v>0.005194080493370223</v>
       </c>
       <c r="I9">
-        <v>0.01107636716315241</v>
+        <v>0.009383526691982169</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.027032560062224</v>
+        <v>0.7567116192247738</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3278174376416771</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2569481223923233</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.456249554687219</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8587077897186859</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.401819211656161</v>
+      </c>
+      <c r="R9">
+        <v>0.7266054983807706</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.479952756900275</v>
+        <v>3.851544092580411</v>
       </c>
       <c r="C10">
-        <v>1.853817431880884</v>
+        <v>1.88303239443843</v>
       </c>
       <c r="D10">
-        <v>0.03252956781029326</v>
+        <v>0.02672005863924554</v>
       </c>
       <c r="E10">
-        <v>0.2763140143303247</v>
+        <v>0.2822237392920925</v>
       </c>
       <c r="F10">
-        <v>2.577756950492983</v>
+        <v>2.017799537951703</v>
       </c>
       <c r="G10">
-        <v>0.0007726985166709822</v>
+        <v>0.01632865736866584</v>
       </c>
       <c r="H10">
-        <v>0.01143337482576801</v>
+        <v>0.009291243917077363</v>
       </c>
       <c r="I10">
-        <v>0.02017398651061608</v>
+        <v>0.01494422413300445</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.141208837545321</v>
+        <v>0.7971766207781457</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3235950171341315</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2953944329868676</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.685472291401325</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8113536043713125</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.60228080405588</v>
+      </c>
+      <c r="R10">
+        <v>0.6682020683851988</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.673415346034631</v>
+        <v>3.926424602341115</v>
       </c>
       <c r="C11">
-        <v>1.886484839295633</v>
+        <v>1.807480673575526</v>
       </c>
       <c r="D11">
-        <v>0.02752882396176748</v>
+        <v>0.02828249125583682</v>
       </c>
       <c r="E11">
-        <v>0.14656879982509</v>
+        <v>0.1470775058327902</v>
       </c>
       <c r="F11">
-        <v>2.445177664255326</v>
+        <v>1.780469214491418</v>
       </c>
       <c r="G11">
-        <v>0.0007702201020185395</v>
+        <v>0.0503039749276688</v>
       </c>
       <c r="H11">
-        <v>0.02913498950444549</v>
+        <v>0.02661271530968889</v>
       </c>
       <c r="I11">
-        <v>0.02326916789512889</v>
+        <v>0.01648513060387469</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.038205282525013</v>
+        <v>0.6631454658925122</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.268227874123049</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2515349153308364</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.391580237857184</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7005017897192474</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.289210911299193</v>
+      </c>
+      <c r="R11">
+        <v>0.609186853140419</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.696683425912681</v>
+        <v>3.916164297504508</v>
       </c>
       <c r="C12">
-        <v>1.847341175458098</v>
+        <v>1.71773973686112</v>
       </c>
       <c r="D12">
-        <v>0.02518490828257791</v>
+        <v>0.03211053014080179</v>
       </c>
       <c r="E12">
-        <v>0.08719253930566939</v>
+        <v>0.07928575284561923</v>
       </c>
       <c r="F12">
-        <v>2.275386825066363</v>
+        <v>1.595476234391171</v>
       </c>
       <c r="G12">
-        <v>0.0007698844745083639</v>
+        <v>0.07429743668768651</v>
       </c>
       <c r="H12">
-        <v>0.06657073075550812</v>
+        <v>0.06411291456523571</v>
       </c>
       <c r="I12">
-        <v>0.02355249561636441</v>
+        <v>0.01641636071066976</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9375406889388103</v>
+        <v>0.5710311083028259</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2335384610279974</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2174490106859039</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.123397489493314</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6379549864798371</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.022604984730528</v>
+      </c>
+      <c r="R12">
+        <v>0.6019231738830744</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.578898797228533</v>
+        <v>3.852924261119597</v>
       </c>
       <c r="C13">
-        <v>1.753583879555208</v>
+        <v>1.631404448925309</v>
       </c>
       <c r="D13">
-        <v>0.02448424426548357</v>
+        <v>0.03559226907314894</v>
       </c>
       <c r="E13">
-        <v>0.0776783191830166</v>
+        <v>0.0614756304278421</v>
       </c>
       <c r="F13">
-        <v>2.057973792227642</v>
+        <v>1.449099685064567</v>
       </c>
       <c r="G13">
-        <v>0.000771220623104815</v>
+        <v>0.0676758372017261</v>
       </c>
       <c r="H13">
-        <v>0.1207110646447376</v>
+        <v>0.1186520116323067</v>
       </c>
       <c r="I13">
-        <v>0.02187142696519206</v>
+        <v>0.01552096070945375</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8265070292875905</v>
+        <v>0.5058495780818504</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2115258773835791</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1900141342508661</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8606919460782834</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6041556746145513</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7782964863347246</v>
+      </c>
+      <c r="R13">
+        <v>0.6168931580068673</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.431278320000786</v>
+        <v>3.781734740305922</v>
       </c>
       <c r="C14">
-        <v>1.664589990539582</v>
+        <v>1.571234337616602</v>
       </c>
       <c r="D14">
-        <v>0.02492389212032542</v>
+        <v>0.03742138508824056</v>
       </c>
       <c r="E14">
-        <v>0.1005478624987646</v>
+        <v>0.08043068913935869</v>
       </c>
       <c r="F14">
-        <v>1.884737832634812</v>
+        <v>1.359193010934717</v>
       </c>
       <c r="G14">
-        <v>0.0007729014900846253</v>
+        <v>0.05034217337287217</v>
       </c>
       <c r="H14">
-        <v>0.168865290856445</v>
+        <v>0.1671836170581713</v>
       </c>
       <c r="I14">
-        <v>0.01997035260404267</v>
+        <v>0.01462303125454323</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7443277101883297</v>
+        <v>0.4694746791518867</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2005254901818176</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1729547948370111</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.684808546276308</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5952600271519692</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.620160614123364</v>
+      </c>
+      <c r="R14">
+        <v>0.6335748362488616</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.362909330782543</v>
+        <v>3.748868353328533</v>
       </c>
       <c r="C15">
-        <v>1.632204316139678</v>
+        <v>1.555848349041014</v>
       </c>
       <c r="D15">
-        <v>0.02518464299325274</v>
+        <v>0.03741586878723524</v>
       </c>
       <c r="E15">
-        <v>0.10926920396372</v>
+        <v>0.08914992156671886</v>
       </c>
       <c r="F15">
-        <v>1.8303479779361</v>
+        <v>1.339976460095613</v>
       </c>
       <c r="G15">
-        <v>0.0007737013713987261</v>
+        <v>0.04165859025071939</v>
       </c>
       <c r="H15">
-        <v>0.1809295164659659</v>
+        <v>0.179402948808999</v>
       </c>
       <c r="I15">
-        <v>0.01919495132580629</v>
+        <v>0.01432705254910438</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7205014544364872</v>
+        <v>0.4631232830689029</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1992659278720161</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1690671785711473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6400051008031937</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5967520964827329</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5817825875176155</v>
+      </c>
+      <c r="R15">
+        <v>0.6382553176593646</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.080071723126764</v>
+        <v>3.606464792825079</v>
       </c>
       <c r="C16">
-        <v>1.525472932033836</v>
+        <v>1.532752936959184</v>
       </c>
       <c r="D16">
-        <v>0.02539221022296623</v>
+        <v>0.03308832833182151</v>
       </c>
       <c r="E16">
-        <v>0.09956815279610609</v>
+        <v>0.08612040144341293</v>
       </c>
       <c r="F16">
-        <v>1.731735594608082</v>
+        <v>1.367343640233244</v>
       </c>
       <c r="G16">
-        <v>0.0007774408784227313</v>
+        <v>0.01251318015454217</v>
       </c>
       <c r="H16">
-        <v>0.1664070451941342</v>
+        <v>0.1654849606147906</v>
       </c>
       <c r="I16">
-        <v>0.01556731172033032</v>
+        <v>0.01260010223260544</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6938668322546206</v>
+        <v>0.4900257290409087</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2143147188416741</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1724311052374929</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6047926250483613</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6212973260459111</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.566150931623973</v>
+      </c>
+      <c r="R16">
+        <v>0.6408764275237964</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.941453945365424</v>
+        <v>3.520748292281496</v>
       </c>
       <c r="C17">
-        <v>1.490835770452179</v>
+        <v>1.536472913061459</v>
       </c>
       <c r="D17">
-        <v>0.02517366515460306</v>
+        <v>0.0299874986502644</v>
       </c>
       <c r="E17">
-        <v>0.07506535029788708</v>
+        <v>0.06631100886111163</v>
       </c>
       <c r="F17">
-        <v>1.746977637180677</v>
+        <v>1.424940517783483</v>
       </c>
       <c r="G17">
-        <v>0.0007794384256864839</v>
+        <v>0.00603407474366513</v>
       </c>
       <c r="H17">
-        <v>0.1278638257941367</v>
+        <v>0.1271836727186013</v>
       </c>
       <c r="I17">
-        <v>0.01385841808644184</v>
+        <v>0.01172900630538987</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7162147146430371</v>
+        <v>0.5263049062088641</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2309744465439465</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1821007523018707</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6668937625874776</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.643651735695761</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6340159079547689</v>
+      </c>
+      <c r="R17">
+        <v>0.6419621692606938</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.915814352984057</v>
+        <v>3.499288879155301</v>
       </c>
       <c r="C18">
-        <v>1.512518854640632</v>
+        <v>1.579325127902109</v>
       </c>
       <c r="D18">
-        <v>0.02533187697206518</v>
+        <v>0.02740621742707638</v>
       </c>
       <c r="E18">
-        <v>0.06171114452162429</v>
+        <v>0.05688073777750291</v>
       </c>
       <c r="F18">
-        <v>1.868322624248179</v>
+        <v>1.541739072360997</v>
       </c>
       <c r="G18">
-        <v>0.0007800424697052479</v>
+        <v>0.004588288171643917</v>
       </c>
       <c r="H18">
-        <v>0.07517891370896024</v>
+        <v>0.07453379154100759</v>
       </c>
       <c r="I18">
-        <v>0.01321809642637195</v>
+        <v>0.01127089446453766</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7883184085116142</v>
+        <v>0.5873893339199441</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2554055130249253</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2032118244487791</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.834358200014286</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6756667375117456</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7998304675500094</v>
+      </c>
+      <c r="R18">
+        <v>0.6455736639350986</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.969702103601321</v>
+        <v>3.527869157671432</v>
       </c>
       <c r="C19">
-        <v>1.582017900773678</v>
+        <v>1.66160781347628</v>
       </c>
       <c r="D19">
-        <v>0.02689685303385847</v>
+        <v>0.02609337421331404</v>
       </c>
       <c r="E19">
-        <v>0.09828090655356903</v>
+        <v>0.09721154813402677</v>
       </c>
       <c r="F19">
-        <v>2.061002784237246</v>
+        <v>1.701094050463993</v>
       </c>
       <c r="G19">
-        <v>0.0007794082191557365</v>
+        <v>0.004712808464478968</v>
       </c>
       <c r="H19">
-        <v>0.03113356519234856</v>
+        <v>0.03034518197968339</v>
       </c>
       <c r="I19">
-        <v>0.01394460958243648</v>
+        <v>0.01181065175589957</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8926863685085351</v>
+        <v>0.6650006546734488</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2845733073342345</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2324755872323436</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.096796989983773</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7239365049613191</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.055497664056695</v>
+      </c>
+      <c r="R19">
+        <v>0.6589041226112053</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.271006211919143</v>
+        <v>3.721764967317938</v>
       </c>
       <c r="C20">
-        <v>1.779594079309618</v>
+        <v>1.849178796654087</v>
       </c>
       <c r="D20">
-        <v>0.03215258099927887</v>
+        <v>0.02666156729293079</v>
       </c>
       <c r="E20">
-        <v>0.2679796656590696</v>
+        <v>0.2727850269011469</v>
       </c>
       <c r="F20">
-        <v>2.46863648605391</v>
+        <v>1.98962996930716</v>
       </c>
       <c r="G20">
-        <v>0.0007752491143234114</v>
+        <v>0.008691865087632422</v>
       </c>
       <c r="H20">
-        <v>0.009755653512258267</v>
+        <v>0.008138177015948767</v>
       </c>
       <c r="I20">
-        <v>0.01804777819415726</v>
+        <v>0.01427946362167098</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.097008193611074</v>
+        <v>0.7935557658660457</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3272305887462394</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2879033396343331</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.620859794607739</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.815862021030803</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.554600742639025</v>
+      </c>
+      <c r="R20">
+        <v>0.6853960580634997</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.841764006145013</v>
+        <v>3.985123329076885</v>
       </c>
       <c r="C21">
-        <v>2.030713695203019</v>
+        <v>1.914723505062568</v>
       </c>
       <c r="D21">
-        <v>0.03302724709752702</v>
+        <v>0.02700068035551784</v>
       </c>
       <c r="E21">
-        <v>0.3238328034286724</v>
+        <v>0.3381911823789849</v>
       </c>
       <c r="F21">
-        <v>2.782759064811728</v>
+        <v>1.974849904580481</v>
       </c>
       <c r="G21">
-        <v>0.0007677979316278449</v>
+        <v>0.0725380225021155</v>
       </c>
       <c r="H21">
-        <v>0.01529040541012971</v>
+        <v>0.01170274653421993</v>
       </c>
       <c r="I21">
-        <v>0.02653325278487717</v>
+        <v>0.01818072311665109</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.215922840471677</v>
+        <v>0.7542543420600225</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2993188968162102</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2897106409011485</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.873022310828858</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7998550916947949</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.732992626598858</v>
+      </c>
+      <c r="R21">
+        <v>0.6243206778597514</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.21956055545968</v>
+        <v>4.145675685274796</v>
       </c>
       <c r="C22">
-        <v>2.188917244376228</v>
+        <v>1.938812550793045</v>
       </c>
       <c r="D22">
-        <v>0.03340882264282818</v>
+        <v>0.02834144482733336</v>
       </c>
       <c r="E22">
-        <v>0.3499332432270634</v>
+        <v>0.3715001139330028</v>
       </c>
       <c r="F22">
-        <v>2.982932406045904</v>
+        <v>1.946271256091023</v>
       </c>
       <c r="G22">
-        <v>0.0007630622108849097</v>
+        <v>0.1640068924712921</v>
       </c>
       <c r="H22">
-        <v>0.01933090596742049</v>
+        <v>0.01418928902025673</v>
       </c>
       <c r="I22">
-        <v>0.0326321926898725</v>
+        <v>0.02061447472090805</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.291339936002117</v>
+        <v>0.7215884451593055</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2795338171368513</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2876372860163343</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.015501789098877</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7870964754737386</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.822648814648545</v>
+      </c>
+      <c r="R22">
+        <v>0.5891237521046233</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.026205366786712</v>
+        <v>4.090604367250705</v>
       </c>
       <c r="C23">
-        <v>2.102150187837708</v>
+        <v>1.944637454168628</v>
       </c>
       <c r="D23">
-        <v>0.03337572608519501</v>
+        <v>0.02736635144600008</v>
       </c>
       <c r="E23">
-        <v>0.3358313336977119</v>
+        <v>0.3518777370939219</v>
       </c>
       <c r="F23">
-        <v>2.88320981384561</v>
+        <v>1.994630156599627</v>
       </c>
       <c r="G23">
-        <v>0.0007655494184602133</v>
+        <v>0.09711362587304251</v>
       </c>
       <c r="H23">
-        <v>0.01714090979982075</v>
+        <v>0.0129093885606934</v>
       </c>
       <c r="I23">
-        <v>0.02910723360847722</v>
+        <v>0.01913719800625735</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.256044284729299</v>
+        <v>0.7546374332135741</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2954122373195389</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.295186012276865</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.940218667222467</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7966199989646583</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.782282826352272</v>
+      </c>
+      <c r="R23">
+        <v>0.6104860759393045</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.285235311386487</v>
+        <v>3.733424724170845</v>
       </c>
       <c r="C24">
-        <v>1.782173498326983</v>
+        <v>1.854284068845686</v>
       </c>
       <c r="D24">
-        <v>0.03292243150459662</v>
+        <v>0.02685720527940716</v>
       </c>
       <c r="E24">
-        <v>0.2837979935977586</v>
+        <v>0.289004870835484</v>
       </c>
       <c r="F24">
-        <v>2.500275494311325</v>
+        <v>2.017379850820248</v>
       </c>
       <c r="G24">
-        <v>0.0007751529898530863</v>
+        <v>0.008601280864311889</v>
       </c>
       <c r="H24">
-        <v>0.009936864735829495</v>
+        <v>0.008285130122374196</v>
       </c>
       <c r="I24">
-        <v>0.01776164405293912</v>
+        <v>0.01385076638572613</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.116620922441513</v>
+        <v>0.8091261392231957</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3331075920293571</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2937498202931295</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.656039809852572</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8295071968290912</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.589113866872751</v>
+      </c>
+      <c r="R24">
+        <v>0.6924232318068171</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.494803697461577</v>
+        <v>3.086750885790707</v>
       </c>
       <c r="C25">
-        <v>1.4459355123725</v>
+        <v>1.52469872319466</v>
       </c>
       <c r="D25">
-        <v>0.03232784455166637</v>
+        <v>0.02574185453756406</v>
       </c>
       <c r="E25">
-        <v>0.2296874218619251</v>
+        <v>0.2387029195845258</v>
       </c>
       <c r="F25">
-        <v>2.099453011148739</v>
+        <v>1.729769686402392</v>
       </c>
       <c r="G25">
-        <v>0.0007858238283286919</v>
+        <v>0.002108359827869499</v>
       </c>
       <c r="H25">
-        <v>0.004228306731087761</v>
+        <v>0.003874150610241989</v>
       </c>
       <c r="I25">
-        <v>0.008672045935481876</v>
+        <v>0.008033254279999014</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9707965724741001</v>
+        <v>0.7270685319380163</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3238042973368209</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2377289678792991</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.353470629354817</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8674801297704064</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.308108031191082</v>
+      </c>
+      <c r="R25">
+        <v>0.7431074905945678</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
